--- a/xlsx_files/Race61.xlsx
+++ b/xlsx_files/Race61.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AB6FD0-D911-4592-8AB0-5131CABADF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76569B3B-8B34-4C38-B55E-99EA35A2B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,10 +218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Noto Sans"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Noto Sans"/>
     </font>
   </fonts>
@@ -245,16 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,7 +533,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -597,7 +590,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -632,7 +625,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -640,7 +633,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -648,7 +641,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -656,7 +649,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -664,7 +657,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -672,7 +665,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -680,7 +673,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -688,7 +681,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -696,7 +689,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -704,7 +697,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -712,7 +705,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -720,7 +713,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -728,7 +721,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -736,7 +729,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -744,7 +737,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -752,7 +745,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -760,7 +753,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -768,7 +761,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -776,7 +769,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -784,7 +777,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -792,7 +785,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -800,7 +793,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -808,7 +801,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -816,7 +809,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -824,7 +817,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -832,7 +825,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -840,7 +833,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -848,7 +841,7 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -856,7 +849,7 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -864,7 +857,7 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -872,7 +865,7 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -880,7 +873,7 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -888,7 +881,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -896,7 +889,7 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -904,7 +897,7 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -912,7 +905,7 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -920,7 +913,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -928,7 +921,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -936,7 +929,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -944,7 +937,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
